--- a/Model params.xlsx
+++ b/Model params.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louth\Documents\Cefas Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louth\Documents\Cefas Project\Git\MMathProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910406EA-3F21-4B6F-8D1A-9774845AB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F37ACF-67A8-42A2-A3E6-DD185DAA47B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E1C103F-FF7D-409E-9F49-0449F2E3F45F}"/>
   </bookViews>
@@ -96,27 +96,15 @@
     <t>Melanogrammus aeglefinus</t>
   </si>
   <si>
-    <t>L_infinity</t>
-  </si>
-  <si>
     <t>L_mat</t>
   </si>
   <si>
-    <t>W_infinity</t>
-  </si>
-  <si>
-    <t>Observed Biomass kg/km^2</t>
-  </si>
-  <si>
     <t>Lophiidae (Lophius piscatorius)</t>
   </si>
   <si>
     <t>Lepidorhombus spp (Lepidorhombus whiffiagonis)</t>
   </si>
   <si>
-    <t>Minimum landing size cm</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>https://cefas-my.sharepoint.com/:u:/r/personal/murray_thompson_cefas_co_uk/Documents/Students/SMMR/Kaitlyn/landings_data_processed.Rdata?csf=1&amp;web=1&amp;e=cFOPEF</t>
+  </si>
+  <si>
+    <t>L_inf</t>
+  </si>
+  <si>
+    <t>W_inf</t>
+  </si>
+  <si>
+    <t>Observed Biomass (kg/km^2)</t>
+  </si>
+  <si>
+    <t>Minimum landing size (cm)</t>
   </si>
 </sst>
 </file>
@@ -193,22 +193,24 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -232,38 +234,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,25 +280,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D28872-34EE-4475-9FF2-6121C2F404C2}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:I11" xr:uid="{F8D28872-34EE-4475-9FF2-6121C2F404C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8D28872-34EE-4475-9FF2-6121C2F404C2}" name="Table1" displayName="Table1" ref="B2:J12" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4B428F1D-075A-46BE-A6A4-58627A0A5253}" name="Species of interest " dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{0B964B9C-BD6C-4940-A080-AFC677C4DA50}" name="Scientific name" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{FE18D910-E575-42D2-A2CB-DCFCBBA9D909}" name="L_mat" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{069FBF7E-751C-4D42-9308-9CD86899E6AB}" name="L_infinity" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B189FAEA-A090-493C-B938-24FE4D3E57A0}" name="W_infinity" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{531357F6-2E18-42DA-AEF4-61F4F0A00BB3}" name="Observed Biomass kg/km^2" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{81315A0C-9C9D-4194-A31A-528766E65AED}" name="Minimum landing size cm" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{069FBF7E-751C-4D42-9308-9CD86899E6AB}" name="L_inf" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B189FAEA-A090-493C-B938-24FE4D3E57A0}" name="W_inf" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{531357F6-2E18-42DA-AEF4-61F4F0A00BB3}" name="Observed Biomass (kg/km^2)" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{81315A0C-9C9D-4194-A31A-528766E65AED}" name="Minimum landing size (cm)" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{896062A8-4F3F-47B0-BB3B-480B2A000CDC}" name="Growth coefficient K" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{A89CE8FB-020A-45D0-B37F-E6E9DA94C7AF}" name="Fishing (external) mortality rate " dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -597,377 +594,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D1D9E1-613E-4A57-BBF9-501D7919B639}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="36" style="2" customWidth="1"/>
-    <col min="22" max="22" width="23.77734375" customWidth="1"/>
+    <col min="1" max="16384" width="17.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="2:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>32.212209999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>80.258780000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1898.6397999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>24.213719999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.14035493800000001</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25.976230000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44.63664</v>
+      </c>
+      <c r="F4" s="3">
+        <v>781.48990000000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>65.870869999999996</v>
+      </c>
+      <c r="H4" s="3">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.29229609699999998</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>37.04945</v>
+      </c>
+      <c r="E5" s="3">
+        <v>66.618669999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3211.9949999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>90.763850000000005</v>
+      </c>
+      <c r="H5" s="3">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.23876867900000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>48.355849999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>104.49061</v>
+      </c>
+      <c r="F6" s="1">
+        <v>11398.831099999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>54.064900000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.16848907499999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>61.133310000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>115.33393</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19780.967400000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>425.04543000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.13517876600000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>78.642740000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>144.87775999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22552.372899999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>81.327809999999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.11857720099999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D9" s="3">
+        <v>29.608029999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>67.045540000000003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3073.1866</v>
+      </c>
+      <c r="G9" s="3">
+        <v>112.64315000000001</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.110838957</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19.516690000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>42.779670000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>753.38980000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>88.30789</v>
+      </c>
+      <c r="H10" s="1">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I10" s="1">
+        <v>0.15485375300000001</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19.286940000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38.325009999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>408.8836</v>
+      </c>
+      <c r="G11" s="1">
+        <v>158.16907</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.32398351199999997</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>25.12369</v>
+      </c>
+      <c r="E12" s="3">
+        <v>52.724519999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1806.81</v>
+      </c>
+      <c r="G12" s="3">
+        <v>128.18173999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.138225442</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2">
-        <v>32.212209999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>80.258780000000002</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1898.6397999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>77.129239999999996</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.14035493800000001</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>25.976230000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44.63664</v>
-      </c>
-      <c r="E3" s="2">
-        <v>781.48990000000003</v>
-      </c>
-      <c r="F3" s="2">
-        <v>184.39105000000001</v>
-      </c>
-      <c r="G3" s="2">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.29229609699999998</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>37.04945</v>
-      </c>
-      <c r="D4" s="2">
-        <v>66.618669999999995</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3211.9949999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>218.03167999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.23876867900000001</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2">
-        <v>48.355849999999997</v>
-      </c>
-      <c r="D5" s="2">
-        <v>104.49061</v>
-      </c>
-      <c r="E5" s="2">
-        <v>11398.831099999999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>164.14759000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>35</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.16848907499999999</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>61.133310000000002</v>
-      </c>
-      <c r="D6" s="2">
-        <v>115.33393</v>
-      </c>
-      <c r="E6" s="2">
-        <v>19780.967400000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>425.04543000000001</v>
-      </c>
-      <c r="G6" s="2">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.13517876600000001</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>78.642740000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>144.87775999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>22552.372899999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>211.30663999999999</v>
-      </c>
-      <c r="G7" s="2">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.11857720099999999</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>29.608029999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>67.045540000000003</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3073.1866</v>
-      </c>
-      <c r="F8" s="2">
-        <v>164.14759000000001</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.110838957</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>19.516690000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>42.779670000000003</v>
-      </c>
-      <c r="E9" s="2">
-        <v>753.38980000000004</v>
-      </c>
-      <c r="F9" s="2">
-        <v>254.03167999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.15485375300000001</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19.286940000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>38.325009999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <v>408.8836</v>
-      </c>
-      <c r="F10" s="2">
-        <v>284.48252000000002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.32398351199999997</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>25.12369</v>
-      </c>
-      <c r="D11" s="2">
-        <v>52.724519999999998</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1806.81</v>
-      </c>
-      <c r="F11" s="2">
-        <v>274.49011999999999</v>
-      </c>
-      <c r="G11" s="2">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.138225442</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1" display="http://standardgraphs.ices.dk/stockList.aspx" xr:uid="{7E20531B-B6D3-4FC2-A723-E0F2DBD8A16B}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{A4408652-600B-4277-A18B-68A7578D66C2}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{0AC93B3E-9201-468B-9566-3887AAFE73B5}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{906D4488-8854-434D-9663-7FBCFDE07C8F}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{2E5B480F-24CE-4F0C-BE27-41DD6A323B98}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{F75E746E-3354-4777-9637-69D14469BB5D}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{8BA3E8AD-339D-44DE-A4E6-0E12B05402B9}"/>
+    <hyperlink ref="J14" r:id="rId1" display="http://standardgraphs.ices.dk/stockList.aspx" xr:uid="{7E20531B-B6D3-4FC2-A723-E0F2DBD8A16B}"/>
+    <hyperlink ref="I14" r:id="rId2" xr:uid="{A4408652-600B-4277-A18B-68A7578D66C2}"/>
+    <hyperlink ref="H14" r:id="rId3" xr:uid="{0AC93B3E-9201-468B-9566-3887AAFE73B5}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{906D4488-8854-434D-9663-7FBCFDE07C8F}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{2E5B480F-24CE-4F0C-BE27-41DD6A323B98}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{F75E746E-3354-4777-9637-69D14469BB5D}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{8BA3E8AD-339D-44DE-A4E6-0E12B05402B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
